--- a/Praescio/Template/TeacherList.xlsx
+++ b/Praescio/Template/TeacherList.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\avi\elysiar\pros\praescioedu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4BD4EC06-86A9-4C35-9FC2-1FD0224A1368}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TeacherList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -35,62 +31,60 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
     <t>ActivateOn</t>
   </si>
   <si>
-    <t>ExpiredOn</t>
+    <t>StandardSubject</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>PinCode</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>StandardSubject</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>AHMED</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>ali.tech1108@gmail.com</t>
-  </si>
-  <si>
     <t>KURLA</t>
   </si>
   <si>
-    <t>MAHARASHTRA</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
+    <t>aviksdev@gmail.com@gmail.com</t>
   </si>
   <si>
     <t>6th-Mathematic,
 6th-Science,
-7th-Science,
-7th-Marathi</t>
+7th-Science</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Avi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="##########"/>
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +93,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,15 +127,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -196,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -229,26 +233,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -281,23 +268,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,28 +410,27 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,142 +440,71 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>31344</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7512323132</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43108</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43108</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43108</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>400070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43108</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43108</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>400070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43108</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43108</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>400070</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{D3DA9B42-717E-4814-8AAC-46E7EB60B974}">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{198C6BE1-DF87-4626-B879-17A7A4D0AE6C}">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{2AC257C3-F6A6-4C31-91D8-EB8F31F1DD7D}">
+      <formula1>D2&lt;TODAY()</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>